--- a/Testing.xlsx
+++ b/Testing.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abraat\Documents\ADAS\Folder SetUp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abraat\Documents\GitHub\exampleGit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6259504F-090E-4394-945E-9C82233DC375}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{457F32DC-3F51-4CE8-8F00-3F3F395620CC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="4416" xr2:uid="{B3BFD2AC-68DF-4CA5-BB2F-A8D5EB1A6304}"/>
   </bookViews>
@@ -31,9 +31,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>Testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seeing </t>
+  </si>
+  <si>
+    <t>works</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Might </t>
+  </si>
+  <si>
+    <t>Not</t>
+  </si>
+  <si>
+    <t>Work</t>
+  </si>
+  <si>
+    <t>Right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This </t>
+  </si>
+  <si>
+    <t>If</t>
   </si>
 </sst>
 </file>
@@ -385,15 +409,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22D6B738-4D8C-47F4-8067-EFD3AEC56AB5}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -402,6 +426,34 @@
       </c>
       <c r="C1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Testing.xlsx
+++ b/Testing.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abraat\Documents\ADAS\Folder SetUp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tvo\Documents\GitHub\exampleGit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6259504F-090E-4394-945E-9C82233DC375}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="4416" xr2:uid="{B3BFD2AC-68DF-4CA5-BB2F-A8D5EB1A6304}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="4410"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,15 +30,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="2">
   <si>
     <t>Testing</t>
+  </si>
+  <si>
+    <t>asd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -384,16 +386,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22D6B738-4D8C-47F4-8067-EFD3AEC56AB5}">
-  <dimension ref="A1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -402,6 +404,17 @@
       </c>
       <c r="C1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
